--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.300000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.300000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>5.880133932559133e-67</v>
+        <v>3.761392833622304e-72</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>4.037187698672651e-67</v>
+        <v>8.67468620481071e-72</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>3.161968427699483e-67</v>
+        <v>1.212726939979542e-71</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>3.27522166673388e-67</v>
+        <v>1.092989908629222e-71</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>3.247164834777032e-67</v>
+        <v>1.050424791570979e-71</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>4.951317694662992e-67</v>
+        <v>1.073000463082107e-71</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>6.061050217173098e-67</v>
+        <v>8.0868721570169e-72</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>1.40947698754618e-66</v>
+        <v>7.66445728416953e-72</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>1.927646346310168e-66</v>
+        <v>5.52805854356062e-72</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>1.536909402083061e-66</v>
+        <v>5.772195523146164e-72</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>9.521252089977875e-67</v>
+        <v>3.74718643751157e-72</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>3.778581361455529e-67</v>
+        <v>2.769479581129797e-72</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>2.704501784262075e-67</v>
+        <v>6.658593322562713e-76</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>3.222876965105551e-67</v>
+        <v>2.452813677635458e-76</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.326456934019066e-67</v>
+        <v>2.410762942828626e-76</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>8.761507659714399e-68</v>
+        <v>1.936354974968905e-76</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>4.302585326840061e-68</v>
+        <v>1.911039345601719e-76</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>1.613584099917233e-68</v>
+        <v>2.373395803657167e-76</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.160587761516243e-68</v>
+        <v>1.879324820891632e-76</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.065322980088843e-68</v>
+        <v>2.10158743152688e-76</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.08205465745968e-68</v>
+        <v>3.871190810562751e-76</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>1.164911142850002e-68</v>
+        <v>4.176046019708966e-76</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>9.821005263981369e-69</v>
+        <v>5.153493773905899e-76</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>1.742356762526952e-68</v>
+        <v>5.227737624232082e-76</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>2.238702884605303e-68</v>
+        <v>4.237878730586855e-76</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>3.971306083244659e-68</v>
+        <v>4.783482577218171e-76</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>7.133709361183164e-68</v>
+        <v>4.045778263634892e-76</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>5.074744816745809e-68</v>
+        <v>4.110967442859479e-76</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>1.997446011952974e-68</v>
+        <v>3.855439284328291e-76</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>7.503596208492802e-69</v>
+        <v>3.578773565647124e-76</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>2.697843733789336e-69</v>
+        <v>3.13950392887971e-76</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>2.028586329462357e-69</v>
+        <v>2.691247664732895e-76</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>1.019969629291065e-69</v>
+        <v>2.983081185643597e-76</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>6.587587740370405e-70</v>
+        <v>2.424002332640574e-76</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>3.566430883814015e-70</v>
+        <v>2.19534139748858e-76</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>3.464468719848557e-70</v>
+        <v>1.315116662556667e-76</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>5.35032684949017e-70</v>
+        <v>1.250319408637916e-76</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.860865128509586e-70</v>
+        <v>9.56468158617484e-77</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>5.985379407251023e-71</v>
+        <v>1.124541115523667e-76</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>3.745680197415206e-71</v>
+        <v>1.626818587306088e-76</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>1.770446024632065e-71</v>
+        <v>1.538967229936217e-76</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>1.17630284958375e-71</v>
+        <v>1.336563786852227e-76</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.100654115102457e-71</v>
+        <v>1.001000619699934e-76</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>2.151526552862354e-71</v>
+        <v>8.775743428217486e-77</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>2.141457552867652e-71</v>
+        <v>7.002635385611987e-77</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>1.731584113456241e-71</v>
+        <v>2.176536545239507e-77</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>1.524416531286999e-71</v>
+        <v>1.337116559337406e-77</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>1.147114779178813e-71</v>
+        <v>9.381838782184698e-78</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>7.251775435384822e-72</v>
+        <v>9.184225528822673e-78</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>3.949356641173007e-72</v>
+        <v>8.618391764540136e-78</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>2.586587064086187e-72</v>
+        <v>1.244385488315383e-77</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>2.26833644047084e-72</v>
+        <v>1.442109303337946e-77</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>2.066436777110672e-72</v>
+        <v>3.261190141651717e-77</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>1.715958895924396e-72</v>
+        <v>4.335319737052971e-77</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>1.252067334031736e-72</v>
+        <v>3.273424563788891e-77</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>7.541012482232739e-73</v>
+        <v>1.939906570346248e-77</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>5.916594744493266e-73</v>
+        <v>7.359289631171275e-78</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>4.458834166870772e-73</v>
+        <v>5.207693636610765e-78</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>4.90558996561839e-73</v>
+        <v>6.141654090994378e-78</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>4.627484678112525e-73</v>
+        <v>2.497868672636213e-78</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>4.45874443969538e-73</v>
+        <v>1.624802651742827e-78</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>4.529167293538059e-73</v>
+        <v>7.762243628982725e-79</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>4.28740994230381e-73</v>
+        <v>2.750734763726119e-79</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>4.272181809287112e-73</v>
+        <v>1.95705193730834e-79</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>3.797762436256525e-73</v>
+        <v>1.767822569540644e-79</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>3.418780695298812e-73</v>
+        <v>1.746700952348406e-79</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>3.098580358034413e-73</v>
+        <v>1.827434011966866e-79</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>2.676443412357375e-73</v>
+        <v>1.505520948268956e-79</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>2.417220405823199e-73</v>
+        <v>2.588775166367214e-79</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>2.144759780571691e-73</v>
+        <v>3.232281891671184e-79</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>2.001686935452196e-73</v>
+        <v>5.438499613525241e-79</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>1.73568215069927e-73</v>
+        <v>9.224103085082282e-79</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1.591848471826871e-73</v>
+        <v>6.210391463068344e-79</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>9.398072792478528e-74</v>
+        <v>2.314173781557628e-79</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>7.307480574819856e-74</v>
+        <v>8.223300574897022e-80</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>5.280921795903754e-74</v>
+        <v>2.794556876464873e-80</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>2.958302556956132e-74</v>
+        <v>1.991307099823251e-80</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>2.266575842990313e-74</v>
+        <v>9.460875352557642e-81</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>1.661114541372312e-74</v>
+        <v>5.790860489892487e-81</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>1.437841890822535e-74</v>
+        <v>3.045691441441794e-81</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.435790422447904e-74</v>
+        <v>2.881251684952442e-81</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>1.332225587853597e-74</v>
+        <v>4.210181093622772e-81</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>1.097979804028277e-74</v>
+        <v>1.309793396469177e-81</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.001056532858426e-74</v>
+        <v>3.985505589741754e-82</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>9.394357553198957e-75</v>
+        <v>2.362799515544147e-82</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>9.61322853787457e-75</v>
+        <v>9.993427678259779e-83</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>9.458768567881011e-75</v>
+        <v>5.944985525948949e-83</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>9.068289232184145e-75</v>
+        <v>4.980057253000959e-83</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>8.213195781117151e-75</v>
+        <v>9.459881713185714e-83</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>7.343448621031326e-75</v>
+        <v>9.224855098741577e-83</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>5.884496554245719e-75</v>
+        <v>7.012660138953469e-83</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>4.301556057393229e-75</v>
+        <v>6.005910449509574e-83</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>1.935498420427278e-75</v>
+        <v>4.392235803018456e-83</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>1.383566315607682e-75</v>
+        <v>2.628107797437016e-83</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>9.511868232034215e-76</v>
+        <v>1.355756122194636e-83</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>5.338407535290633e-76</v>
+        <v>8.396416384280356e-84</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>4.149461020219135e-76</v>
+        <v>7.277080930235019e-84</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>3.610814201240952e-76</v>
+        <v>6.516289430717185e-84</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>3.334974846796049e-76</v>
+        <v>5.269599208079271e-84</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>2.959721561805843e-76</v>
+        <v>3.641520087671919e-84</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.838817906963614e-76</v>
+        <v>1.962005266323882e-84</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>2.811720565524428e-76</v>
+        <v>1.406951618433038e-84</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>2.77589857138814e-76</v>
+        <v>9.305330649310928e-85</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>2.546164939267367e-76</v>
+        <v>9.685668406842712e-85</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.342357395754327e-76</v>
+        <v>8.63437133199105e-85</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>2.193315639381846e-76</v>
+        <v>7.879209238610078e-85</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.850467792399837e-76</v>
+        <v>7.734237500879068e-85</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.805944917693625e-76</v>
+        <v>7.159594410574201e-85</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>1.774954093788092e-76</v>
+        <v>6.87345231400818e-85</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>1.598479520269349e-76</v>
+        <v>5.78678453751242e-85</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.198471718482245e-76</v>
+        <v>5.10886328942182e-85</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>8.843118272828604e-77</v>
+        <v>4.467084502590941e-85</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>7.191077290777048e-77</v>
+        <v>3.750966283558266e-85</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>6.693334089916396e-77</v>
+        <v>3.334129076388912e-85</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>7.303285187696312e-77</v>
+        <v>2.907698003383356e-85</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>1.072207792933613e-76</v>
+        <v>2.681350381830057e-85</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.203119838052718e-76</v>
+        <v>2.289796897362299e-85</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>1.155830679430081e-76</v>
+        <v>2.07889273608488e-85</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>1.06178043575447e-76</v>
+        <v>1.160787918904934e-85</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>1.012051968686142e-76</v>
+        <v>8.762031954105014e-86</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>9.871755602800239e-77</v>
+        <v>6.172993479158372e-86</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>7.821463521637729e-77</v>
+        <v>3.27247738482848e-86</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>6.647551954537866e-77</v>
+        <v>2.43417295616092e-86</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>2.938182322862907e-77</v>
+        <v>1.736717074480728e-86</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>9.982434462169391e-78</v>
+        <v>1.479359212379798e-86</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>4.67951039451179e-78</v>
+        <v>1.47626822126596e-86</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>2.801739688623654e-78</v>
+        <v>1.355012396362204e-86</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>2.881292203731601e-78</v>
+        <v>1.086415249539394e-86</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>2.862538744266099e-78</v>
+        <v>9.740490031482768e-87</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>3.447068382906078e-78</v>
+        <v>9.026841552473687e-87</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>3.325465854293252e-78</v>
+        <v>9.101218583187555e-87</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>2.929149590190748e-78</v>
+        <v>8.801756740520994e-87</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>2.39736263746816e-78</v>
+        <v>8.30824617707413e-87</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>1.838478181334197e-78</v>
+        <v>7.389929430348914e-87</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>1.817042347986093e-78</v>
+        <v>6.50545095906086e-87</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.391165352555558e-78</v>
+        <v>5.065731666156613e-87</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>1.000908620952932e-78</v>
+        <v>3.604613657890224e-87</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>7.725217825390681e-79</v>
+        <v>1.534284058172358e-87</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>6.936197238002597e-79</v>
+        <v>1.066666890066745e-87</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>5.884463627280126e-79</v>
+        <v>7.150158203029107e-88</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>5.444757690337519e-79</v>
+        <v>3.803068604635583e-88</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>4.682714540252389e-79</v>
+        <v>2.862728439066053e-88</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>4.344081112265685e-79</v>
+        <v>2.440240438555858e-88</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>4.304227411396267e-79</v>
+        <v>2.216239635022256e-88</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>4.197272123079232e-79</v>
+        <v>1.943828208077964e-88</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>4.001551402688091e-79</v>
+        <v>1.853113030981903e-88</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>3.95695235427997e-79</v>
+        <v>1.830962592157427e-88</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>3.771201404953783e-79</v>
+        <v>1.804838027601517e-88</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>3.592478536948174e-79</v>
+        <v>1.63571616550517e-88</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>3.123867052681104e-79</v>
+        <v>1.488393630163986e-88</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>2.363601623348185e-79</v>
+        <v>1.378049645260103e-88</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>2.30758534620897e-79</v>
+        <v>1.150611552184566e-88</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>1.796328399241745e-79</v>
+        <v>1.115127854812738e-88</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.64968162472863e-79</v>
+        <v>1.091695648335407e-88</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>1.590931192594669e-79</v>
+        <v>9.664916065824112e-89</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>1.809678068162424e-79</v>
+        <v>7.050222968132353e-89</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>1.504136811223625e-79</v>
+        <v>5.061048780531006e-89</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>1.383803324045412e-79</v>
+        <v>4.008829669099257e-89</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>1.178294629641373e-79</v>
+        <v>3.702156123842668e-89</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>1.033692898087674e-79</v>
+        <v>3.953968124960993e-89</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>9.205093961206069e-80</v>
+        <v>5.644346285282619e-89</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>8.061935719546562e-80</v>
+        <v>6.237189023964018e-89</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>6.985468462129221e-80</v>
+        <v>5.890481445718872e-89</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>6.715126761663932e-80</v>
+        <v>5.314757632828713e-89</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>2.919058837520823e-80</v>
+        <v>5.00954974464452e-89</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>1.01623251594421e-80</v>
+        <v>4.860264870514714e-89</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>5.743392609368774e-81</v>
+        <v>3.723873922675092e-89</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>7.995212617320898e-81</v>
+        <v>3.12443196451573e-89</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>4.888615083382641e-81</v>
+        <v>1.301758272186003e-89</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>3.710785249855001e-81</v>
+        <v>3.964098155314911e-90</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>2.795639331817625e-81</v>
+        <v>1.661895500641101e-90</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>2.597539168606305e-81</v>
+        <v>8.908055198505007e-91</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>2.595066390766377e-81</v>
+        <v>8.693438953395421e-91</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>3.424379567332813e-81</v>
+        <v>8.468433908327269e-91</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>2.732233184696703e-81</v>
+        <v>9.806557899434156e-91</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.668398985977487e-81</v>
+        <v>8.960898520826243e-91</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.312218801919506e-81</v>
+        <v>7.673408735501463e-91</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.111004636794874e-91</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.559039597548659e-91</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.504387957557821e-91</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.358473715734207e-91</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.348601040175669e-91</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.761201320513593e-91</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.557187848091246e-91</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.286954107126029e-91</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.177361407729071e-91</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9.977885484673402e-92</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>8.961581627368686e-92</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8.65387756782154e-92</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>8.22499205566383e-92</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>7.615317541206161e-92</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>7.330282405454691e-92</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.7880820967409e-92</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6.465311722264953e-92</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.481921911523443e-92</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.028597572834874e-92</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.928989985641381e-92</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.991405071741111e-92</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.727209159613257e-92</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.625432977036613e-92</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.929641662948558e-92</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.414219682197542e-92</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.168869679038511e-92</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.827158980830075e-92</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.584765502115255e-92</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.395947086317645e-92</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.207866082283165e-92</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.035128336673216e-92</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>9.862454173104275e-93</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.166786283442962e-93</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.408778517667756e-93</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>7.83825379673739e-94</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.088608753664579e-93</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6.637100525709473e-94</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.979816215171275e-94</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.671632796447807e-94</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.351231633802169e-94</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>3.162087844462796e-94</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.933450157485974e-94</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.964918448753806e-94</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.70313192256224e-94</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.311309941618242e-94</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.300000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.300000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>3.761392833622304e-72</v>
+        <v>5.880133932559133e-67</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>8.67468620481071e-72</v>
+        <v>4.037187698672651e-67</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>1.212726939979542e-71</v>
+        <v>3.161968427699483e-67</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>1.092989908629222e-71</v>
+        <v>3.27522166673388e-67</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>1.050424791570979e-71</v>
+        <v>3.247164834777032e-67</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>1.073000463082107e-71</v>
+        <v>4.951317694662992e-67</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>8.0868721570169e-72</v>
+        <v>6.061050217173098e-67</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>7.66445728416953e-72</v>
+        <v>1.40947698754618e-66</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>5.52805854356062e-72</v>
+        <v>1.927646346310168e-66</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>5.772195523146164e-72</v>
+        <v>1.536909402083061e-66</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>3.74718643751157e-72</v>
+        <v>9.521252089977875e-67</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>2.769479581129797e-72</v>
+        <v>3.778581361455529e-67</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>6.658593322562713e-76</v>
+        <v>2.704501784262075e-67</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>2.452813677635458e-76</v>
+        <v>3.222876965105551e-67</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>2.410762942828626e-76</v>
+        <v>1.326456934019066e-67</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>1.936354974968905e-76</v>
+        <v>8.761507659714399e-68</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>1.911039345601719e-76</v>
+        <v>4.302585326840061e-68</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>2.373395803657167e-76</v>
+        <v>1.613584099917233e-68</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.879324820891632e-76</v>
+        <v>1.160587761516243e-68</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>2.10158743152688e-76</v>
+        <v>1.065322980088843e-68</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>3.871190810562751e-76</v>
+        <v>1.08205465745968e-68</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>4.176046019708966e-76</v>
+        <v>1.164911142850002e-68</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>5.153493773905899e-76</v>
+        <v>9.821005263981369e-69</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>5.227737624232082e-76</v>
+        <v>1.742356762526952e-68</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>4.237878730586855e-76</v>
+        <v>2.238702884605303e-68</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>4.783482577218171e-76</v>
+        <v>3.971306083244659e-68</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>4.045778263634892e-76</v>
+        <v>7.133709361183164e-68</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>4.110967442859479e-76</v>
+        <v>5.074744816745809e-68</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>3.855439284328291e-76</v>
+        <v>1.997446011952974e-68</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>3.578773565647124e-76</v>
+        <v>7.503596208492802e-69</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>3.13950392887971e-76</v>
+        <v>2.697843733789336e-69</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>2.691247664732895e-76</v>
+        <v>2.028586329462357e-69</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>2.983081185643597e-76</v>
+        <v>1.019969629291065e-69</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>2.424002332640574e-76</v>
+        <v>6.587587740370405e-70</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>2.19534139748858e-76</v>
+        <v>3.566430883814015e-70</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>1.315116662556667e-76</v>
+        <v>3.464468719848557e-70</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>1.250319408637916e-76</v>
+        <v>5.35032684949017e-70</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>9.56468158617484e-77</v>
+        <v>1.860865128509586e-70</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>1.124541115523667e-76</v>
+        <v>5.985379407251023e-71</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>1.626818587306088e-76</v>
+        <v>3.745680197415206e-71</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>1.538967229936217e-76</v>
+        <v>1.770446024632065e-71</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>1.336563786852227e-76</v>
+        <v>1.17630284958375e-71</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>1.001000619699934e-76</v>
+        <v>1.100654115102457e-71</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>8.775743428217486e-77</v>
+        <v>2.151526552862354e-71</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>7.002635385611987e-77</v>
+        <v>2.141457552867652e-71</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>2.176536545239507e-77</v>
+        <v>1.731584113456241e-71</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.337116559337406e-77</v>
+        <v>1.524416531286999e-71</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>9.381838782184698e-78</v>
+        <v>1.147114779178813e-71</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>9.184225528822673e-78</v>
+        <v>7.251775435384822e-72</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>8.618391764540136e-78</v>
+        <v>3.949356641173007e-72</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>1.244385488315383e-77</v>
+        <v>2.586587064086187e-72</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>1.442109303337946e-77</v>
+        <v>2.26833644047084e-72</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>3.261190141651717e-77</v>
+        <v>2.066436777110672e-72</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>4.335319737052971e-77</v>
+        <v>1.715958895924396e-72</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>3.273424563788891e-77</v>
+        <v>1.252067334031736e-72</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>1.939906570346248e-77</v>
+        <v>7.541012482232739e-73</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>7.359289631171275e-78</v>
+        <v>5.916594744493266e-73</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>5.207693636610765e-78</v>
+        <v>4.458834166870772e-73</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>6.141654090994378e-78</v>
+        <v>4.90558996561839e-73</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>2.497868672636213e-78</v>
+        <v>4.627484678112525e-73</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>1.624802651742827e-78</v>
+        <v>4.45874443969538e-73</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>7.762243628982725e-79</v>
+        <v>4.529167293538059e-73</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>2.750734763726119e-79</v>
+        <v>4.28740994230381e-73</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>1.95705193730834e-79</v>
+        <v>4.272181809287112e-73</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>1.767822569540644e-79</v>
+        <v>3.797762436256525e-73</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>1.746700952348406e-79</v>
+        <v>3.418780695298812e-73</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>1.827434011966866e-79</v>
+        <v>3.098580358034413e-73</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.505520948268956e-79</v>
+        <v>2.676443412357375e-73</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>2.588775166367214e-79</v>
+        <v>2.417220405823199e-73</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>3.232281891671184e-79</v>
+        <v>2.144759780571691e-73</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>5.438499613525241e-79</v>
+        <v>2.001686935452196e-73</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>9.224103085082282e-79</v>
+        <v>1.73568215069927e-73</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>6.210391463068344e-79</v>
+        <v>1.591848471826871e-73</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>2.314173781557628e-79</v>
+        <v>9.398072792478528e-74</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>8.223300574897022e-80</v>
+        <v>7.307480574819856e-74</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>2.794556876464873e-80</v>
+        <v>5.280921795903754e-74</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>1.991307099823251e-80</v>
+        <v>2.958302556956132e-74</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>9.460875352557642e-81</v>
+        <v>2.266575842990313e-74</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>5.790860489892487e-81</v>
+        <v>1.661114541372312e-74</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>3.045691441441794e-81</v>
+        <v>1.437841890822535e-74</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>2.881251684952442e-81</v>
+        <v>1.435790422447904e-74</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>4.210181093622772e-81</v>
+        <v>1.332225587853597e-74</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>1.309793396469177e-81</v>
+        <v>1.097979804028277e-74</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>3.985505589741754e-82</v>
+        <v>1.001056532858426e-74</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>2.362799515544147e-82</v>
+        <v>9.394357553198957e-75</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>9.993427678259779e-83</v>
+        <v>9.61322853787457e-75</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>5.944985525948949e-83</v>
+        <v>9.458768567881011e-75</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>4.980057253000959e-83</v>
+        <v>9.068289232184145e-75</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>9.459881713185714e-83</v>
+        <v>8.213195781117151e-75</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>9.224855098741577e-83</v>
+        <v>7.343448621031326e-75</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>7.012660138953469e-83</v>
+        <v>5.884496554245719e-75</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>6.005910449509574e-83</v>
+        <v>4.301556057393229e-75</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>4.392235803018456e-83</v>
+        <v>1.935498420427278e-75</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>2.628107797437016e-83</v>
+        <v>1.383566315607682e-75</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>1.355756122194636e-83</v>
+        <v>9.511868232034215e-76</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>8.396416384280356e-84</v>
+        <v>5.338407535290633e-76</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>7.277080930235019e-84</v>
+        <v>4.149461020219135e-76</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>6.516289430717185e-84</v>
+        <v>3.610814201240952e-76</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>5.269599208079271e-84</v>
+        <v>3.334974846796049e-76</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>3.641520087671919e-84</v>
+        <v>2.959721561805843e-76</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>1.962005266323882e-84</v>
+        <v>2.838817906963614e-76</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>1.406951618433038e-84</v>
+        <v>2.811720565524428e-76</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>9.305330649310928e-85</v>
+        <v>2.77589857138814e-76</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>9.685668406842712e-85</v>
+        <v>2.546164939267367e-76</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>8.63437133199105e-85</v>
+        <v>2.342357395754327e-76</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>7.879209238610078e-85</v>
+        <v>2.193315639381846e-76</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>7.734237500879068e-85</v>
+        <v>1.850467792399837e-76</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>7.159594410574201e-85</v>
+        <v>1.805944917693625e-76</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>6.87345231400818e-85</v>
+        <v>1.774954093788092e-76</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>5.78678453751242e-85</v>
+        <v>1.598479520269349e-76</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>5.10886328942182e-85</v>
+        <v>1.198471718482245e-76</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>4.467084502590941e-85</v>
+        <v>8.843118272828604e-77</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>3.750966283558266e-85</v>
+        <v>7.191077290777048e-77</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>3.334129076388912e-85</v>
+        <v>6.693334089916396e-77</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>2.907698003383356e-85</v>
+        <v>7.303285187696312e-77</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>2.681350381830057e-85</v>
+        <v>1.072207792933613e-76</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>2.289796897362299e-85</v>
+        <v>1.203119838052718e-76</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>2.07889273608488e-85</v>
+        <v>1.155830679430081e-76</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>1.160787918904934e-85</v>
+        <v>1.06178043575447e-76</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>8.762031954105014e-86</v>
+        <v>1.012051968686142e-76</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>6.172993479158372e-86</v>
+        <v>9.871755602800239e-77</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>3.27247738482848e-86</v>
+        <v>7.821463521637729e-77</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>2.43417295616092e-86</v>
+        <v>6.647551954537866e-77</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>1.736717074480728e-86</v>
+        <v>2.938182322862907e-77</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>1.479359212379798e-86</v>
+        <v>9.982434462169391e-78</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>1.47626822126596e-86</v>
+        <v>4.67951039451179e-78</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>1.355012396362204e-86</v>
+        <v>2.801739688623654e-78</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.086415249539394e-86</v>
+        <v>2.881292203731601e-78</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>9.740490031482768e-87</v>
+        <v>2.862538744266099e-78</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>9.026841552473687e-87</v>
+        <v>3.447068382906078e-78</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>9.101218583187555e-87</v>
+        <v>3.325465854293252e-78</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>8.801756740520994e-87</v>
+        <v>2.929149590190748e-78</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>8.30824617707413e-87</v>
+        <v>2.39736263746816e-78</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>7.389929430348914e-87</v>
+        <v>1.838478181334197e-78</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>6.50545095906086e-87</v>
+        <v>1.817042347986093e-78</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>5.065731666156613e-87</v>
+        <v>1.391165352555558e-78</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>3.604613657890224e-87</v>
+        <v>1.000908620952932e-78</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>1.534284058172358e-87</v>
+        <v>7.725217825390681e-79</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>1.066666890066745e-87</v>
+        <v>6.936197238002597e-79</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>7.150158203029107e-88</v>
+        <v>5.884463627280126e-79</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>3.803068604635583e-88</v>
+        <v>5.444757690337519e-79</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>2.862728439066053e-88</v>
+        <v>4.682714540252389e-79</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>2.440240438555858e-88</v>
+        <v>4.344081112265685e-79</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>2.216239635022256e-88</v>
+        <v>4.304227411396267e-79</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>1.943828208077964e-88</v>
+        <v>4.197272123079232e-79</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>1.853113030981903e-88</v>
+        <v>4.001551402688091e-79</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>1.830962592157427e-88</v>
+        <v>3.95695235427997e-79</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>1.804838027601517e-88</v>
+        <v>3.771201404953783e-79</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>1.63571616550517e-88</v>
+        <v>3.592478536948174e-79</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>1.488393630163986e-88</v>
+        <v>3.123867052681104e-79</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>1.378049645260103e-88</v>
+        <v>2.363601623348185e-79</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.150611552184566e-88</v>
+        <v>2.30758534620897e-79</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>1.115127854812738e-88</v>
+        <v>1.796328399241745e-79</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>1.091695648335407e-88</v>
+        <v>1.64968162472863e-79</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>9.664916065824112e-89</v>
+        <v>1.590931192594669e-79</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>7.050222968132353e-89</v>
+        <v>1.809678068162424e-79</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>5.061048780531006e-89</v>
+        <v>1.504136811223625e-79</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>4.008829669099257e-89</v>
+        <v>1.383803324045412e-79</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>3.702156123842668e-89</v>
+        <v>1.178294629641373e-79</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>3.953968124960993e-89</v>
+        <v>1.033692898087674e-79</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>5.644346285282619e-89</v>
+        <v>9.205093961206069e-80</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>6.237189023964018e-89</v>
+        <v>8.061935719546562e-80</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>5.890481445718872e-89</v>
+        <v>6.985468462129221e-80</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>5.314757632828713e-89</v>
+        <v>6.715126761663932e-80</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>5.00954974464452e-89</v>
+        <v>2.919058837520823e-80</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>4.860264870514714e-89</v>
+        <v>1.01623251594421e-80</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>3.723873922675092e-89</v>
+        <v>5.743392609368774e-81</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>3.12443196451573e-89</v>
+        <v>7.995212617320898e-81</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>1.301758272186003e-89</v>
+        <v>4.888615083382641e-81</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>3.964098155314911e-90</v>
+        <v>3.710785249855001e-81</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>1.661895500641101e-90</v>
+        <v>2.795639331817625e-81</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>8.908055198505007e-91</v>
+        <v>2.597539168606305e-81</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>8.693438953395421e-91</v>
+        <v>2.595066390766377e-81</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>8.468433908327269e-91</v>
+        <v>3.424379567332813e-81</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>9.806557899434156e-91</v>
+        <v>2.732233184696703e-81</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>8.960898520826243e-91</v>
+        <v>1.668398985977487e-81</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>7.673408735501463e-91</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>6.111004636794874e-91</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.559039597548659e-91</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.504387957557821e-91</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.358473715734207e-91</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2.348601040175669e-91</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.761201320513593e-91</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.557187848091246e-91</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.286954107126029e-91</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.177361407729071e-91</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9.977885484673402e-92</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>8.961581627368686e-92</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>8.65387756782154e-92</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>8.22499205566383e-92</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>7.615317541206161e-92</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>7.330282405454691e-92</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>6.7880820967409e-92</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>6.465311722264953e-92</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5.481921911523443e-92</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.028597572834874e-92</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.928989985641381e-92</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.991405071741111e-92</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.727209159613257e-92</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.625432977036613e-92</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.929641662948558e-92</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.414219682197542e-92</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.168869679038511e-92</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.827158980830075e-92</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.584765502115255e-92</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.395947086317645e-92</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.207866082283165e-92</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.035128336673216e-92</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>9.862454173104275e-93</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>4.166786283442962e-93</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.408778517667756e-93</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>7.83825379673739e-94</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.088608753664579e-93</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>6.637100525709473e-94</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.979816215171275e-94</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.671632796447807e-94</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3.351231633802169e-94</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>3.162087844462796e-94</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.933450157485974e-94</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.964918448753806e-94</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.70313192256224e-94</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.311309941618242e-94</v>
+        <v>1.312218801919506e-81</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.300000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.300000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>5.880133932559133e-67</v>
+        <v>5.887161633906886e-54</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>4.037187698672651e-67</v>
+        <v>8.456543369232269e-54</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>3.161968427699483e-67</v>
+        <v>1.102032435199175e-53</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>3.27522166673388e-67</v>
+        <v>9.487728486165507e-54</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>3.247164834777032e-67</v>
+        <v>1.079333937622148e-53</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>4.951317694662992e-67</v>
+        <v>9.948442046084782e-54</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>6.061050217173098e-67</v>
+        <v>7.980080043288379e-54</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>1.40947698754618e-66</v>
+        <v>7.494060996586942e-54</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>1.927646346310168e-66</v>
+        <v>5.159010293848913e-54</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>1.536909402083061e-66</v>
+        <v>5.401851597867662e-54</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>9.521252089977875e-67</v>
+        <v>5.013254380711711e-54</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>3.778581361455529e-67</v>
+        <v>2.660275560774357e-54</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>2.704501784262075e-67</v>
+        <v>6.12404165012564e-58</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>3.222876965105551e-67</v>
+        <v>2.233503196846953e-58</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.326456934019066e-67</v>
+        <v>2.315039989408967e-58</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>8.761507659714399e-68</v>
+        <v>1.815154933058014e-58</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>4.302585326840061e-68</v>
+        <v>1.809800365168672e-58</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>1.613584099917233e-68</v>
+        <v>2.212811292522188e-58</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.160587761516243e-68</v>
+        <v>1.761006594931869e-58</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.065322980088843e-68</v>
+        <v>2.018299562416331e-58</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.08205465745968e-68</v>
+        <v>3.518134527269858e-58</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>1.164911142850002e-68</v>
+        <v>3.952738921317909e-58</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>9.821005263981369e-69</v>
+        <v>5.131771252884219e-58</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>1.742356762526952e-68</v>
+        <v>5.043605646893611e-58</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>2.238702884605303e-68</v>
+        <v>4.392194164278878e-58</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>3.971306083244659e-68</v>
+        <v>4.48517487388981e-58</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>7.133709361183164e-68</v>
+        <v>4.065252277886e-58</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>5.074744816745809e-68</v>
+        <v>3.929116767468699e-58</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>1.997446011952974e-68</v>
+        <v>3.689277122781382e-58</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>7.503596208492802e-69</v>
+        <v>3.484195837057508e-58</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>2.697843733789336e-69</v>
+        <v>3.028661704741686e-58</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>2.028586329462357e-69</v>
+        <v>2.6441591724637e-58</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>1.019969629291065e-69</v>
+        <v>2.778999158971838e-58</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>6.587587740370405e-70</v>
+        <v>2.295347304569927e-58</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>3.566430883814015e-70</v>
+        <v>2.051917989928533e-58</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>3.464468719848557e-70</v>
+        <v>1.272943787904551e-58</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>5.35032684949017e-70</v>
+        <v>1.177642200546471e-58</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.860865128509586e-70</v>
+        <v>1.03342147284142e-58</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>5.985379407251023e-71</v>
+        <v>1.063180597677807e-58</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>3.745680197415206e-71</v>
+        <v>1.524281321161539e-58</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>1.770446024632065e-71</v>
+        <v>1.453291382655208e-58</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.17630284958375e-71</v>
+        <v>1.243322954708096e-58</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.100654115102457e-71</v>
+        <v>9.353776927727774e-59</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>2.151526552862354e-71</v>
+        <v>8.155463102102044e-59</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>2.141457552867652e-71</v>
+        <v>6.549660186735058e-59</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>1.731584113456241e-71</v>
+        <v>2.018038630140758e-59</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>1.524416531286999e-71</v>
+        <v>1.249974327216427e-59</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>1.147114779178813e-71</v>
+        <v>8.728672734668512e-60</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>7.251775435384822e-72</v>
+        <v>8.59795414761846e-60</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>3.949356641173007e-72</v>
+        <v>8.054895401884953e-60</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>2.586587064086187e-72</v>
+        <v>1.158252526817536e-59</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>2.26833644047084e-72</v>
+        <v>1.342253201836015e-59</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>2.066436777110672e-72</v>
+        <v>3.045472125484743e-59</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>1.715958895924396e-72</v>
+        <v>4.04438854504061e-59</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>1.252067334031736e-72</v>
+        <v>3.049685964612607e-59</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>7.541012482232739e-73</v>
+        <v>1.808022169879992e-59</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>5.916594744493266e-73</v>
+        <v>6.874537586886644e-60</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>4.458834166870772e-73</v>
+        <v>4.868927895071831e-60</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>4.90558996561839e-73</v>
+        <v>5.73003634937238e-60</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>4.627484678112525e-73</v>
+        <v>2.327620108667055e-60</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>4.45874443969538e-73</v>
+        <v>1.510265829899856e-60</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>4.529167293538059e-73</v>
+        <v>7.200324816927e-61</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>4.28740994230381e-73</v>
+        <v>2.566828381535694e-61</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>4.272181809287112e-73</v>
+        <v>1.828723446001698e-61</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>3.797762436256525e-73</v>
+        <v>1.664797625061156e-61</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>3.418780695298812e-73</v>
+        <v>1.626781901485828e-61</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>3.098580358034413e-73</v>
+        <v>1.743715927361067e-61</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>2.676443412357375e-73</v>
+        <v>1.441136700732538e-61</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>2.417220405823199e-73</v>
+        <v>2.363569779559521e-61</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>2.144759780571691e-73</v>
+        <v>3.055803271939113e-61</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>2.001686935452196e-73</v>
+        <v>5.075268275861001e-61</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>1.73568215069927e-73</v>
+        <v>8.605526565703437e-61</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>1.591848471826871e-73</v>
+        <v>5.797798327160968e-61</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>9.398072792478528e-74</v>
+        <v>2.158346557897897e-61</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>7.307480574819856e-74</v>
+        <v>7.709139499691509e-62</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>5.280921795903754e-74</v>
+        <v>2.606600908616232e-62</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>2.958302556956132e-74</v>
+        <v>1.864377819552899e-62</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>2.266575842990313e-74</v>
+        <v>9.004467189773883e-63</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>1.661114541372312e-74</v>
+        <v>5.39942544668508e-63</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>1.437841890822535e-74</v>
+        <v>2.83414870477948e-63</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.435790422447904e-74</v>
+        <v>2.684298734761907e-63</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>1.332225587853597e-74</v>
+        <v>3.919372695503438e-63</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.097979804028277e-74</v>
+        <v>1.218975303882436e-63</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>1.001056532858426e-74</v>
+        <v>3.703320948644043e-64</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>9.394357553198957e-75</v>
+        <v>2.200655525990362e-64</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>9.61322853787457e-75</v>
+        <v>9.324732499130535e-65</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>9.458768567881011e-75</v>
+        <v>5.49996087877438e-65</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>9.068289232184145e-75</v>
+        <v>4.643808260292932e-65</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>8.213195781117151e-75</v>
+        <v>8.806716264610392e-65</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>7.343448621031326e-75</v>
+        <v>8.580051392008287e-65</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>5.884496554245719e-75</v>
+        <v>6.550392974526771e-65</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>4.301556057393229e-75</v>
+        <v>5.587622795510424e-65</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>1.935498420427278e-75</v>
+        <v>4.077296927995209e-65</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>1.383566315607682e-75</v>
+        <v>2.452397012425004e-65</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>9.511868232034215e-76</v>
+        <v>1.262867373687526e-65</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>5.338407535290633e-76</v>
+        <v>7.841152090717496e-66</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>4.149461020219135e-76</v>
+        <v>6.799518751166666e-66</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>3.610814201240952e-76</v>
+        <v>6.029163436074177e-66</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>3.334974846796049e-76</v>
+        <v>4.923546879055913e-66</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>2.959721561805843e-76</v>
+        <v>3.390651125292459e-66</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.838817906963614e-76</v>
+        <v>1.828254157615389e-66</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>2.811720565524428e-76</v>
+        <v>1.312997731754443e-66</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>2.77589857138814e-76</v>
+        <v>8.671720053534164e-67</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>2.546164939267367e-76</v>
+        <v>9.01930426103936e-67</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.342357395754327e-76</v>
+        <v>8.049077784305899e-67</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>2.193315639381846e-76</v>
+        <v>7.336513479770778e-67</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.850467792399837e-76</v>
+        <v>7.20761137599715e-67</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.805944917693625e-76</v>
+        <v>6.669610890516245e-67</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>1.774954093788092e-76</v>
+        <v>6.411681354481286e-67</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>1.598479520269349e-76</v>
+        <v>5.393794117541368e-67</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>1.198471718482245e-76</v>
+        <v>4.760823770322405e-67</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>8.843118272828604e-77</v>
+        <v>4.159469733489275e-67</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>7.191077290777048e-77</v>
+        <v>3.494141247439268e-67</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>6.693334089916396e-77</v>
+        <v>3.106750332849125e-67</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>7.303285187696312e-77</v>
+        <v>2.709608311573364e-67</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.072207792933613e-76</v>
+        <v>2.494656001083775e-67</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.203119838052718e-76</v>
+        <v>2.132880148472701e-67</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>1.155830679430081e-76</v>
+        <v>1.937130889182908e-67</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>1.06178043575447e-76</v>
+        <v>1.081502721655829e-67</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>1.012051968686142e-76</v>
+        <v>8.158220786457263e-68</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>9.871755602800239e-77</v>
+        <v>5.757839905014428e-68</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>7.821463521637729e-77</v>
+        <v>3.048282742400391e-68</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>6.647551954537866e-77</v>
+        <v>2.267158172797929e-68</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>2.938182322862907e-77</v>
+        <v>1.62002849142945e-68</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>9.982434462169391e-78</v>
+        <v>1.378704342651823e-68</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>4.67951039451179e-78</v>
+        <v>1.376591093589647e-68</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>2.801739688623654e-78</v>
+        <v>1.265371626667697e-68</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>2.881292203731601e-78</v>
+        <v>1.012436794335945e-68</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>2.862538744266099e-78</v>
+        <v>9.092984831912896e-69</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>3.447068382906078e-78</v>
+        <v>8.403754148744592e-69</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>3.325465854293252e-78</v>
+        <v>8.481361568717079e-69</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>2.929149590190748e-78</v>
+        <v>8.195560204726162e-69</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>2.39736263746816e-78</v>
+        <v>7.73649999065055e-69</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>1.838478181334197e-78</v>
+        <v>6.893477554402364e-69</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>1.817042347986093e-78</v>
+        <v>6.055705736317629e-69</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>1.391165352555558e-78</v>
+        <v>4.717264788787758e-69</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>1.000908620952932e-78</v>
+        <v>3.360269677743994e-69</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>7.725217825390681e-79</v>
+        <v>1.42889054308832e-69</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>6.936197238002597e-79</v>
+        <v>9.908176832298654e-70</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>5.884463627280126e-79</v>
+        <v>6.671424537305447e-70</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>5.444757690337519e-79</v>
+        <v>3.549555664071276e-70</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>4.682714540252389e-79</v>
+        <v>2.662743425189589e-70</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>4.344081112265685e-79</v>
+        <v>2.261645012157459e-70</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>4.304227411396267e-79</v>
+        <v>2.06290507872924e-70</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>4.197272123079232e-79</v>
+        <v>1.811162454815118e-70</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>4.001551402688091e-79</v>
+        <v>1.735449675296208e-70</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>3.95695235427997e-79</v>
+        <v>1.708868432419655e-70</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>3.771201404953783e-79</v>
+        <v>1.683088748126249e-70</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>3.592478536948174e-79</v>
+        <v>1.522967835021732e-70</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>3.123867052681104e-79</v>
+        <v>1.3806188452738e-70</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>2.363601623348185e-79</v>
+        <v>1.278642183956995e-70</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>2.30758534620897e-79</v>
+        <v>1.076909898941613e-70</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>1.796328399241745e-79</v>
+        <v>1.038140786775598e-70</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>1.64968162472863e-79</v>
+        <v>1.019843025978237e-70</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>1.590931192594669e-79</v>
+        <v>9.004271682422961e-71</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>1.809678068162424e-79</v>
+        <v>6.573775243699972e-71</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>1.504136811223625e-79</v>
+        <v>4.745576277282739e-71</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>1.383803324045412e-79</v>
+        <v>3.729997484420588e-71</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>1.178294629641373e-79</v>
+        <v>3.445281133139073e-71</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>1.033692898087674e-79</v>
+        <v>3.675232526349142e-71</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>9.205093961206069e-80</v>
+        <v>5.291395677400967e-71</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>8.061935719546562e-80</v>
+        <v>5.797344327013902e-71</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>6.985468462129221e-80</v>
+        <v>5.485295474372115e-71</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>6.715126761663932e-80</v>
+        <v>4.939713146375879e-71</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>2.919058837520823e-80</v>
+        <v>4.660666241371311e-71</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>1.01623251594421e-80</v>
+        <v>4.527479276440609e-71</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>5.743392609368774e-81</v>
+        <v>3.464826362016998e-71</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>7.995212617320898e-81</v>
+        <v>2.914957384951815e-71</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>4.888615083382641e-81</v>
+        <v>1.212711045742608e-71</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>3.710785249855001e-81</v>
+        <v>3.689497025549617e-72</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>2.795639331817625e-81</v>
+        <v>1.549846438716027e-72</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>2.597539168606305e-81</v>
+        <v>8.309240151453019e-73</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>2.595066390766377e-81</v>
+        <v>8.119534454520573e-73</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>3.424379567332813e-81</v>
+        <v>7.868156673421153e-73</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>2.732233184696703e-81</v>
+        <v>9.107452283966788e-73</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>1.668398985977487e-81</v>
+        <v>8.394684025240098e-73</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>1.312218801919506e-81</v>
+        <v>7.141681900778664e-73</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.69020683582629e-73</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.237413973009938e-73</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.196191606507493e-73</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.129014970455268e-73</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.185784239887736e-73</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.645422372150843e-73</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.461932189753578e-73</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.202559085752256e-73</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.099303234949604e-73</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>9.338120465967027e-74</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>8.369106774172427e-74</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>8.086487798650328e-74</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7.668205559776667e-74</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>7.081497309249648e-74</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>6.82212459629422e-74</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>6.328486702241752e-74</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>6.025168086407858e-74</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.095124659247177e-74</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>3.755612380562392e-74</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>3.661476875822363e-74</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.791680950925609e-74</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.544440744931072e-74</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.449917876097061e-74</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.729911004382781e-74</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.248278482776524e-74</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.014977023407696e-74</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.702817752413057e-74</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.477167988255532e-74</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.300588614829066e-74</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.122972826636395e-74</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>9.63988392692307e-75</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>9.207888316481695e-75</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>3.89336340068654e-75</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.311137900732088e-75</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>7.293078286419357e-76</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.014169041027822e-75</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6.181720931259907e-76</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>4.630409935154342e-76</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.390231759722327e-76</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>3.056684005755106e-76</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.951988004730379e-76</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.65819639177886e-76</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.757935322239443e-76</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.585443308566035e-76</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.219033386620593e-76</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.300000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.300000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>5.887161633906886e-54</v>
+        <v>4.618595265661159e-67</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>8.456543369232269e-54</v>
+        <v>3.078181165550872e-67</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.102032435199175e-53</v>
+        <v>2.392548781168331e-67</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>9.487728486165507e-54</v>
+        <v>2.514659402700343e-67</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>1.079333937622148e-53</v>
+        <v>2.484350072316687e-67</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>9.948442046084782e-54</v>
+        <v>3.691529064018549e-67</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>7.980080043288379e-54</v>
+        <v>4.525738238161863e-67</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>7.494060996586942e-54</v>
+        <v>1.032977059257979e-66</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>5.159010293848913e-54</v>
+        <v>1.409029919845991e-66</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>5.401851597867662e-54</v>
+        <v>1.127460852301514e-66</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>5.013254380711711e-54</v>
+        <v>6.964532144472835e-67</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>2.660275560774357e-54</v>
+        <v>2.76362460231542e-67</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>6.12404165012564e-58</v>
+        <v>1.992811418413816e-67</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.233503196846953e-58</v>
+        <v>2.369143606375759e-67</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.315039989408967e-58</v>
+        <v>9.897246319290708e-68</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.815154933058014e-58</v>
+        <v>6.411393817091199e-68</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.809800365168672e-58</v>
+        <v>3.187301816091787e-68</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2.212811292522188e-58</v>
+        <v>1.244868696939222e-68</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.761006594931869e-58</v>
+        <v>8.924067198335213e-69</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>2.018299562416331e-58</v>
+        <v>8.098967878940068e-69</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>3.518134527269858e-58</v>
+        <v>8.469896390636046e-69</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>3.952738921317909e-58</v>
+        <v>9.013167636242662e-69</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>5.131771252884219e-58</v>
+        <v>7.580633866346548e-69</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>5.043605646893611e-58</v>
+        <v>1.299888475423561e-68</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>4.392194164278878e-58</v>
+        <v>1.716394666259703e-68</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>4.48517487388981e-58</v>
+        <v>2.918893639311876e-68</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>4.065252277886e-58</v>
+        <v>5.282140474705605e-68</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3.929116767468699e-58</v>
+        <v>3.781360515311799e-68</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>3.689277122781382e-58</v>
+        <v>1.460489659626297e-68</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>3.484195837057508e-58</v>
+        <v>5.575521582207477e-69</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>3.028661704741686e-58</v>
+        <v>2.016522046606303e-69</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>2.6441591724637e-58</v>
+        <v>1.499677846238623e-69</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>2.778999158971838e-58</v>
+        <v>7.394605088447598e-70</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>2.295347304569927e-58</v>
+        <v>5.025810845697882e-70</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>2.051917989928533e-58</v>
+        <v>2.546458173557927e-70</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.272943787904551e-58</v>
+        <v>2.624879012422434e-70</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.177642200546471e-58</v>
+        <v>4.033872478352385e-70</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.03342147284142e-58</v>
+        <v>1.39967599299809e-70</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.063180597677807e-58</v>
+        <v>4.521490028004887e-71</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>1.524281321161539e-58</v>
+        <v>2.953158546068692e-71</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.453291382655208e-58</v>
+        <v>1.37323464355074e-71</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.243322954708096e-58</v>
+        <v>8.730210744529547e-72</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>9.353776927727774e-59</v>
+        <v>8.419346778775531e-72</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>8.155463102102044e-59</v>
+        <v>1.605728356492045e-71</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>6.549660186735058e-59</v>
+        <v>1.60040567264429e-71</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>2.018038630140758e-59</v>
+        <v>1.300946281005873e-71</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.249974327216427e-59</v>
+        <v>1.132381571363898e-71</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>8.728672734668512e-60</v>
+        <v>8.434312126948971e-72</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>8.59795414761846e-60</v>
+        <v>5.447705535393568e-72</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>8.054895401884953e-60</v>
+        <v>2.985502087136857e-72</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>1.158252526817536e-59</v>
+        <v>1.984741271389126e-72</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>1.342253201836015e-59</v>
+        <v>1.719395386862245e-72</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>3.045472125484743e-59</v>
+        <v>1.550709424862391e-72</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>4.04438854504061e-59</v>
+        <v>1.295892644722926e-72</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>3.049685964612607e-59</v>
+        <v>9.406928114579239e-73</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>1.808022169879992e-59</v>
+        <v>5.672238944025827e-73</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>6.874537586886644e-60</v>
+        <v>4.45746391985107e-73</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>4.868927895071831e-60</v>
+        <v>3.33251586925213e-73</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>5.73003634937238e-60</v>
+        <v>3.608246641440857e-73</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>2.327620108667055e-60</v>
+        <v>3.420063654228214e-73</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.510265829899856e-60</v>
+        <v>3.27436613531522e-73</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>7.200324816927e-61</v>
+        <v>3.321694167623284e-73</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>2.566828381535694e-61</v>
+        <v>3.143041089378081e-73</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.828723446001698e-61</v>
+        <v>3.141402146143589e-73</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.664797625061156e-61</v>
+        <v>2.784734701761577e-73</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.626781901485828e-61</v>
+        <v>2.504849041538402e-73</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.743715927361067e-61</v>
+        <v>2.262712451922144e-73</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.441136700732538e-61</v>
+        <v>1.957105535743368e-73</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>2.363569779559521e-61</v>
+        <v>1.773935406956175e-73</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>3.055803271939113e-61</v>
+        <v>1.569728414455178e-73</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>5.075268275861001e-61</v>
+        <v>1.463823577792386e-73</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>8.605526565703437e-61</v>
+        <v>1.268262160188313e-73</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>5.797798327160968e-61</v>
+        <v>1.166993118314981e-73</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>2.158346557897897e-61</v>
+        <v>6.890262114352816e-74</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>7.709139499691509e-62</v>
+        <v>5.355868209076911e-74</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>2.606600908616232e-62</v>
+        <v>3.873338959003104e-74</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>1.864377819552899e-62</v>
+        <v>2.171896343382402e-74</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>9.004467189773883e-63</v>
+        <v>1.664837105956313e-74</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>5.39942544668508e-63</v>
+        <v>1.225996718487509e-74</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>2.83414870477948e-63</v>
+        <v>1.059757661915832e-74</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>2.684298734761907e-63</v>
+        <v>1.058047571951345e-74</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>3.919372695503438e-63</v>
+        <v>9.850069862922914e-75</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.218975303882436e-63</v>
+        <v>8.084684660219432e-75</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>3.703320948644043e-64</v>
+        <v>7.397502440496629e-75</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>2.200655525990362e-64</v>
+        <v>6.942362343085323e-75</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>9.324732499130535e-65</v>
+        <v>7.046559381287061e-75</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>5.49996087877438e-65</v>
+        <v>6.95782616187308e-75</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>4.643808260292932e-65</v>
+        <v>6.666465332129002e-75</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>8.806716264610392e-65</v>
+        <v>6.055858687472465e-75</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>8.580051392008287e-65</v>
+        <v>5.385392027928307e-75</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>6.550392974526771e-65</v>
+        <v>4.313700640285134e-75</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>5.587622795510424e-65</v>
+        <v>3.173567332976054e-75</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>4.077296927995209e-65</v>
+        <v>1.4287008614315e-75</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>2.452397012425004e-65</v>
+        <v>1.021005956010015e-75</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1.262867373687526e-65</v>
+        <v>7.100917369491497e-76</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>7.841152090717496e-66</v>
+        <v>3.997062113879835e-76</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>6.799518751166666e-66</v>
+        <v>3.117046618750187e-76</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>6.029163436074177e-66</v>
+        <v>2.710131371838363e-76</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>4.923546879055913e-66</v>
+        <v>2.505635626049901e-76</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>3.390651125292459e-66</v>
+        <v>2.222371365754132e-76</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1.828254157615389e-66</v>
+        <v>2.141139233757246e-76</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1.312997731754443e-66</v>
+        <v>2.129597771163735e-76</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>8.671720053534164e-67</v>
+        <v>2.082531868262023e-76</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>9.01930426103936e-67</v>
+        <v>1.899135676001745e-76</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>8.049077784305899e-67</v>
+        <v>1.732850774906517e-76</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>7.336513479770778e-67</v>
+        <v>1.601589246516078e-76</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>7.20761137599715e-67</v>
+        <v>1.412058730974276e-76</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>6.669610890516245e-67</v>
+        <v>1.366820780667212e-76</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>6.411681354481286e-67</v>
+        <v>1.35550020631556e-76</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>5.393794117541368e-67</v>
+        <v>1.21468452127644e-76</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>4.760823770322405e-67</v>
+        <v>9.096326402798393e-77</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>4.159469733489275e-67</v>
+        <v>6.798039233476878e-77</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>3.494141247439268e-67</v>
+        <v>5.489392291469979e-77</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>3.106750332849125e-67</v>
+        <v>5.092975208046197e-77</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>2.709608311573364e-67</v>
+        <v>5.603925684610512e-77</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>2.494656001083775e-67</v>
+        <v>8.120845656518195e-77</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>2.132880148472701e-67</v>
+        <v>8.950326978469603e-77</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>1.937130889182908e-67</v>
+        <v>8.652628341489114e-77</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>1.081502721655829e-67</v>
+        <v>7.887187334707892e-77</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>8.158220786457263e-68</v>
+        <v>7.595912563644299e-77</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>5.757839905014428e-68</v>
+        <v>7.378647707927141e-77</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>3.048282742400391e-68</v>
+        <v>5.831134921727701e-77</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.267158172797929e-68</v>
+        <v>4.978761938050245e-77</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.62002849142945e-68</v>
+        <v>2.211812813855481e-77</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.378704342651823e-68</v>
+        <v>7.556086419395491e-78</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.376591093589647e-68</v>
+        <v>3.589857616977452e-78</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.265371626667697e-68</v>
+        <v>2.115562593872552e-78</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.012436794335945e-68</v>
+        <v>2.184437193476053e-78</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>9.092984831912896e-69</v>
+        <v>2.154070334960836e-78</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>8.403754148744592e-69</v>
+        <v>2.572909717071922e-78</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>8.481361568717079e-69</v>
+        <v>2.477677948730027e-78</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>8.195560204726162e-69</v>
+        <v>2.196437474610184e-78</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>7.73649999065055e-69</v>
+        <v>1.783095779689952e-78</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>6.893477554402364e-69</v>
+        <v>1.354598295742429e-78</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>6.055705736317629e-69</v>
+        <v>1.029925249927686e-78</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>4.717264788787758e-69</v>
+        <v>7.404485922971302e-79</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>3.360269677743994e-69</v>
+        <v>5.790391838504558e-79</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>1.42889054308832e-69</v>
+        <v>5.289600692946256e-79</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>9.908176832298654e-70</v>
+        <v>4.347525062619105e-79</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>6.671424537305447e-70</v>
+        <v>4.06216355702847e-79</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>3.549555664071276e-70</v>
+        <v>3.592788415154767e-79</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>2.662743425189589e-70</v>
+        <v>3.278463900100499e-79</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>2.261645012157459e-70</v>
+        <v>3.235039076419079e-79</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>2.06290507872924e-70</v>
+        <v>3.133345762547906e-79</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>1.811162454815118e-70</v>
+        <v>2.979337626122525e-79</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>1.735449675296208e-70</v>
+        <v>2.928485625729805e-79</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>1.708868432419655e-70</v>
+        <v>2.726916033902934e-79</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>1.683088748126249e-70</v>
+        <v>2.296203463112968e-79</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.522967835021732e-70</v>
+        <v>1.75353830914737e-79</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.3806188452738e-70</v>
+        <v>1.712900232394301e-79</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.278642183956995e-70</v>
+        <v>1.338009971912936e-79</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1.076909898941613e-70</v>
+        <v>1.226485703357237e-79</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1.038140786775598e-70</v>
+        <v>1.185185033092954e-79</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.019843025978237e-70</v>
+        <v>1.335998783341305e-79</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>9.004271682422961e-71</v>
+        <v>1.117885864528332e-79</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>6.573775243699972e-71</v>
+        <v>1.024490594386176e-79</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>4.745576277282739e-71</v>
+        <v>8.766386663337133e-80</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>3.729997484420588e-71</v>
+        <v>7.689618098807786e-80</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>3.445281133139073e-71</v>
+        <v>6.858952687969511e-80</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>3.675232526349142e-71</v>
+        <v>5.941508250526892e-80</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>5.291395677400967e-71</v>
+        <v>5.21218031533851e-80</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>5.797344327013902e-71</v>
+        <v>5.041047195443568e-80</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>5.485295474372115e-71</v>
+        <v>2.22162694636278e-80</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>4.939713146375879e-71</v>
+        <v>7.77726373523013e-81</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>4.660666241371311e-71</v>
+        <v>4.296192605245111e-81</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>4.527479276440609e-71</v>
+        <v>6.108376035891624e-81</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>3.464826362016998e-71</v>
+        <v>3.733535223446127e-81</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>2.914957384951815e-71</v>
+        <v>2.798938557319418e-81</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>1.212711045742608e-71</v>
+        <v>2.079601937806396e-81</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>3.689497025549617e-72</v>
+        <v>1.897017406487633e-81</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>1.549846438716027e-72</v>
+        <v>2.002635822024865e-81</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>8.309240151453019e-73</v>
+        <v>2.607922939308255e-81</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>8.119534454520573e-73</v>
+        <v>2.083568841112152e-81</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>7.868156673421153e-73</v>
+        <v>1.269001829018545e-81</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>9.107452283966788e-73</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>8.394684025240098e-73</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>7.141681900778664e-73</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.69020683582629e-73</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.237413973009938e-73</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.196191606507493e-73</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.129014970455268e-73</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2.185784239887736e-73</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1.645422372150843e-73</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1.461932189753578e-73</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1.202559085752256e-73</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.099303234949604e-73</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9.338120465967027e-74</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>8.369106774172427e-74</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>8.086487798650328e-74</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>7.668205559776667e-74</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>7.081497309249648e-74</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>6.82212459629422e-74</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>6.328486702241752e-74</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>6.025168086407858e-74</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>5.095124659247177e-74</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.755612380562392e-74</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.661476875822363e-74</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.791680950925609e-74</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.544440744931072e-74</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.449917876097061e-74</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.729911004382781e-74</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.248278482776524e-74</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.014977023407696e-74</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.702817752413057e-74</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.477167988255532e-74</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.300588614829066e-74</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.122972826636395e-74</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>9.63988392692307e-75</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>9.207888316481695e-75</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>3.89336340068654e-75</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1.311137900732088e-75</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>7.293078286419357e-76</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.014169041027822e-75</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>6.181720931259907e-76</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.630409935154342e-76</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.390231759722327e-76</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>3.056684005755106e-76</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>2.951988004730379e-76</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>3.65819639177886e-76</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.757935322239443e-76</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.585443308566035e-76</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.219033386620593e-76</v>
+        <v>9.964250848117324e-82</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.300000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.300000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>4.618595265661159e-67</v>
+        <v>2.416793685189378e-67</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>3.078181165550872e-67</v>
+        <v>1.909467964607276e-67</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>2.392548781168331e-67</v>
+        <v>1.707248972635083e-67</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>2.514659402700343e-67</v>
+        <v>2.077263168549225e-67</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2.484350072316687e-67</v>
+        <v>2.231677874650712e-67</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>3.691529064018549e-67</v>
+        <v>3.385715018733294e-67</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>4.525738238161863e-67</v>
+        <v>4.391815495677082e-67</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1.032977059257979e-66</v>
+        <v>1.008521777003736e-66</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1.409029919845991e-66</v>
+        <v>1.379525718699047e-66</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1.127460852301514e-66</v>
+        <v>1.119062581861156e-66</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>6.964532144472835e-67</v>
+        <v>6.873491142525574e-67</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>2.76362460231542e-67</v>
+        <v>2.736832197935168e-67</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>1.992811418413816e-67</v>
+        <v>1.934129790003536e-67</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.369143606375759e-67</v>
+        <v>2.339336291597567e-67</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>9.897246319290708e-68</v>
+        <v>9.446867233720778e-68</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>6.411393817091199e-68</v>
+        <v>6.126660914469873e-68</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>3.187301816091787e-68</v>
+        <v>2.757233444412082e-68</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.244868696939222e-68</v>
+        <v>1.006749770271847e-68</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>8.924067198335213e-69</v>
+        <v>7.168752691910249e-69</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>8.098967878940068e-69</v>
+        <v>6.152111650419896e-69</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>8.469896390636046e-69</v>
+        <v>7.199510402442528e-69</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>9.013167636242662e-69</v>
+        <v>8.550248885100566e-69</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>7.580633866346548e-69</v>
+        <v>6.38262939886896e-69</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>1.299888475423561e-68</v>
+        <v>1.127512769452072e-68</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>1.716394666259703e-68</v>
+        <v>1.520304653407535e-68</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>2.918893639311876e-68</v>
+        <v>2.891770817034097e-68</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>5.282140474705605e-68</v>
+        <v>5.250587236464383e-68</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3.781360515311799e-68</v>
+        <v>3.733040327437693e-68</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1.460489659626297e-68</v>
+        <v>1.451630128195525e-68</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>5.575521582207477e-69</v>
+        <v>5.379697112815515e-69</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>2.016522046606303e-69</v>
+        <v>1.929844574293014e-69</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>1.499677846238623e-69</v>
+        <v>1.42705404205046e-69</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>7.394605088447598e-70</v>
+        <v>7.602240733541678e-70</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>5.025810845697882e-70</v>
+        <v>3.855894806433408e-70</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>2.546458173557927e-70</v>
+        <v>2.498571182091663e-70</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>2.624879012422434e-70</v>
+        <v>2.540237620774546e-70</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>4.033872478352385e-70</v>
+        <v>3.966690639453638e-70</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.39967599299809e-70</v>
+        <v>1.375650117304611e-70</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>4.521490028004887e-71</v>
+        <v>4.145382437785984e-71</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>2.953158546068692e-71</v>
+        <v>2.58885427222547e-71</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.37323464355074e-71</v>
+        <v>1.276589535319077e-71</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>8.730210744529547e-72</v>
+        <v>7.981103218736006e-72</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>8.419346778775531e-72</v>
+        <v>8.258915858770527e-72</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1.605728356492045e-71</v>
+        <v>1.58309244835349e-71</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1.60040567264429e-71</v>
+        <v>1.578055463025809e-71</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.300946281005873e-71</v>
+        <v>1.300798992233871e-71</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.132381571363898e-71</v>
+        <v>1.127585542690415e-71</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>8.434312126948971e-72</v>
+        <v>8.320351638355487e-72</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>5.447705535393568e-72</v>
+        <v>5.361306538832183e-72</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>2.985502087136857e-72</v>
+        <v>3.001454059653909e-72</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>1.984741271389126e-72</v>
+        <v>1.966354121396226e-72</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>1.719395386862245e-72</v>
+        <v>1.73847858363528e-72</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>1.550709424862391e-72</v>
+        <v>1.525760720376479e-72</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>1.295892644722926e-72</v>
+        <v>1.242680872065803e-72</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>9.406928114579239e-73</v>
+        <v>9.053302007664311e-73</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.672238944025827e-73</v>
+        <v>5.589977791189358e-73</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>4.45746391985107e-73</v>
+        <v>4.394880832282253e-73</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>3.33251586925213e-73</v>
+        <v>3.333516454954125e-73</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>3.608246641440857e-73</v>
+        <v>3.627040141556373e-73</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>3.420063654228214e-73</v>
+        <v>3.434230233138863e-73</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>3.27436613531522e-73</v>
+        <v>3.282774434388215e-73</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>3.321694167623284e-73</v>
+        <v>3.337047634133785e-73</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>3.143041089378081e-73</v>
+        <v>3.148376493244182e-73</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>3.141402146143589e-73</v>
+        <v>3.144455333855831e-73</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>2.784734701761577e-73</v>
+        <v>2.799493471953029e-73</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>2.504849041538402e-73</v>
+        <v>2.512607041333011e-73</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>2.262712451922144e-73</v>
+        <v>2.288006188252777e-73</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.957105535743368e-73</v>
+        <v>1.961976406672487e-73</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.773935406956175e-73</v>
+        <v>1.786059112034202e-73</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.569728414455178e-73</v>
+        <v>1.576975057971116e-73</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.463823577792386e-73</v>
+        <v>1.466468813150239e-73</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.268262160188313e-73</v>
+        <v>1.28089282408131e-73</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.166993118314981e-73</v>
+        <v>1.17145292396153e-73</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>6.890262114352816e-74</v>
+        <v>6.948958908524953e-74</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>5.355868209076911e-74</v>
+        <v>5.357605974149777e-74</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>3.873338959003104e-74</v>
+        <v>3.885977163320139e-74</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>2.171896343382402e-74</v>
+        <v>2.185347598256054e-74</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.664837105956313e-74</v>
+        <v>1.673238708087696e-74</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.225996718487509e-74</v>
+        <v>1.228753968271935e-74</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.059757661915832e-74</v>
+        <v>1.064403677075806e-74</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.058047571951345e-74</v>
+        <v>1.060722613428094e-74</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>9.850069862922914e-75</v>
+        <v>9.88206614969859e-75</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>8.084684660219432e-75</v>
+        <v>8.102570619116668e-75</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>7.397502440496629e-75</v>
+        <v>7.407606228511267e-75</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>6.942362343085323e-75</v>
+        <v>6.947420359307414e-75</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>7.046559381287061e-75</v>
+        <v>7.074250033691079e-75</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>6.95782616187308e-75</v>
+        <v>6.95851342686271e-75</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>6.666465332129002e-75</v>
+        <v>6.662761996140091e-75</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>6.055858687472465e-75</v>
+        <v>6.058251020717895e-75</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>5.385392027928307e-75</v>
+        <v>5.402287233442201e-75</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>4.313700640285134e-75</v>
+        <v>4.310742656229503e-75</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>3.173567332976054e-75</v>
+        <v>3.190016696525554e-75</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>1.4287008614315e-75</v>
+        <v>1.437747336130156e-75</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>1.021005956010015e-75</v>
+        <v>1.031732562863856e-75</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>7.100917369491497e-76</v>
+        <v>7.137763686362616e-76</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>3.997062113879835e-76</v>
+        <v>4.020057760905506e-76</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>3.117046618750187e-76</v>
+        <v>3.121870958042532e-76</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>2.710131371838363e-76</v>
+        <v>2.711042228455621e-76</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>2.505635626049901e-76</v>
+        <v>2.49105216031081e-76</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>2.222371365754132e-76</v>
+        <v>2.207520072860264e-76</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>2.141139233757246e-76</v>
+        <v>2.142686189497875e-76</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>2.129597771163735e-76</v>
+        <v>2.114196843449207e-76</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>2.082531868262023e-76</v>
+        <v>2.085394546837239e-76</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1.899135676001745e-76</v>
+        <v>1.916576102277246e-76</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.732850774906517e-76</v>
+        <v>1.725104892404804e-76</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>1.601589246516078e-76</v>
+        <v>1.598724375169826e-76</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.412058730974276e-76</v>
+        <v>1.404681865652514e-76</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.366820780667212e-76</v>
+        <v>1.354933436020844e-76</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.35550020631556e-76</v>
+        <v>1.353743832000519e-76</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.21468452127644e-76</v>
+        <v>1.196720129845144e-76</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>9.096326402798393e-77</v>
+        <v>9.016509402701924e-77</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>6.798039233476878e-77</v>
+        <v>6.827468226781947e-77</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>5.489392291469979e-77</v>
+        <v>5.489696023898948e-77</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>5.092975208046197e-77</v>
+        <v>5.161425227929042e-77</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>5.603925684610512e-77</v>
+        <v>5.583521032313845e-77</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>8.120845656518195e-77</v>
+        <v>8.083724295897544e-77</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>8.950326978469603e-77</v>
+        <v>8.958189400770872e-77</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>8.652628341489114e-77</v>
+        <v>8.629269556975711e-77</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>7.887187334707892e-77</v>
+        <v>7.876905994289533e-77</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>7.595912563644299e-77</v>
+        <v>7.58920615792437e-77</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>7.378647707927141e-77</v>
+        <v>7.406229334638501e-77</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>5.831134921727701e-77</v>
+        <v>5.863633956238782e-77</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>4.978761938050245e-77</v>
+        <v>5.011231852229347e-77</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>2.211812813855481e-77</v>
+        <v>2.216015941999217e-77</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>7.556086419395491e-78</v>
+        <v>7.619679989509647e-78</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>3.589857616977452e-78</v>
+        <v>3.591690386918901e-78</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>2.115562593872552e-78</v>
+        <v>2.132876745816161e-78</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>2.184437193476053e-78</v>
+        <v>2.184910369556668e-78</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>2.154070334960836e-78</v>
+        <v>2.149388541729067e-78</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>2.572909717071922e-78</v>
+        <v>2.560144058597931e-78</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>2.477677948730027e-78</v>
+        <v>2.518442621095226e-78</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>2.196437474610184e-78</v>
+        <v>2.199679477127655e-78</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.783095779689952e-78</v>
+        <v>1.785252918366883e-78</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.354598295742429e-78</v>
+        <v>1.35299334507714e-78</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.029925249927686e-78</v>
+        <v>1.025782510247533e-78</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>7.404485922971302e-79</v>
+        <v>7.51196964174886e-79</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>5.790391838504558e-79</v>
+        <v>5.741557440671985e-79</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>5.289600692946256e-79</v>
+        <v>5.185335062151813e-79</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>4.347525062619105e-79</v>
+        <v>3.997059142659366e-79</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>4.06216355702847e-79</v>
+        <v>4.035883994085389e-79</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>3.592788415154767e-79</v>
+        <v>3.604008248116716e-79</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>3.278463900100499e-79</v>
+        <v>3.160655509202617e-79</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>3.235039076419079e-79</v>
+        <v>3.203389509470421e-79</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>3.133345762547906e-79</v>
+        <v>3.119004143362789e-79</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>2.979337626122525e-79</v>
+        <v>2.966523980450625e-79</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>2.928485625729805e-79</v>
+        <v>2.921990861368337e-79</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>2.726916033902934e-79</v>
+        <v>2.731550030764777e-79</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>2.296203463112968e-79</v>
+        <v>2.28998193737372e-79</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>1.75353830914737e-79</v>
+        <v>1.759094373016822e-79</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>1.712900232394301e-79</v>
+        <v>1.720074731831941e-79</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.338009971912936e-79</v>
+        <v>1.347278458269007e-79</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1.226485703357237e-79</v>
+        <v>1.229695080377057e-79</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1.185185033092954e-79</v>
+        <v>1.189899906339969e-79</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.335998783341305e-79</v>
+        <v>1.343278885545583e-79</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.117885864528332e-79</v>
+        <v>1.120486886257914e-79</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>1.024490594386176e-79</v>
+        <v>1.029942549494454e-79</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>8.766386663337133e-80</v>
+        <v>8.802719299452807e-80</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>7.689618098807786e-80</v>
+        <v>7.723330420943983e-80</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>6.858952687969511e-80</v>
+        <v>6.864075117051947e-80</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>5.941508250526892e-80</v>
+        <v>5.983314627130733e-80</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>5.21218031533851e-80</v>
+        <v>5.235670655462654e-80</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>5.041047195443568e-80</v>
+        <v>5.072773754007357e-80</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>2.22162694636278e-80</v>
+        <v>2.23432332804849e-80</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>7.77726373523013e-81</v>
+        <v>8.008376128089954e-81</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>4.296192605245111e-81</v>
+        <v>4.389129031116178e-81</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>6.108376035891624e-81</v>
+        <v>6.213009615176821e-81</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>3.733535223446127e-81</v>
+        <v>3.853290315179689e-81</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>2.798938557319418e-81</v>
+        <v>2.907262651288791e-81</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>2.079601937806396e-81</v>
+        <v>2.152943055762735e-81</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1.897017406487633e-81</v>
+        <v>1.736326595033428e-81</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>2.002635822024865e-81</v>
+        <v>2.018196600295682e-81</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>2.607922939308255e-81</v>
+        <v>2.590664203360786e-81</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>2.083568841112152e-81</v>
+        <v>2.104212838008419e-81</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>1.269001829018545e-81</v>
+        <v>1.290153410224837e-81</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>9.964250848117324e-82</v>
+        <v>1.016681537972889e-81</v>
       </c>
     </row>
   </sheetData>
